--- a/data/tree_data/tree_info.xlsx
+++ b/data/tree_data/tree_info.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SiniVuorensyrjä\Desktop\Brights\Brights_repo\Final project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cityplanner\Cityplanner_Tool\data\tree_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A1B5F2-1F13-4DAF-A201-07AD4048AEC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95701D6-5C8B-406C-850E-9C92F4E3B9C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8415" yWindow="1575" windowWidth="19485" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -260,22 +260,22 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -560,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="178" zoomScaleNormal="178" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,7 +639,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
@@ -649,7 +649,7 @@
       <c r="C3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>29</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -799,7 +799,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>17</v>
       </c>
@@ -809,7 +809,7 @@
       <c r="C8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E8" s="4" t="s">
